--- a/tests/files/test_io4.xlsx
+++ b/tests/files/test_io4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.1</v>
+        <v>100.1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.2</v>
+        <v>110.1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.3</v>
+        <v>210.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>120.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>220.2</v>
       </c>
     </row>
   </sheetData>
